--- a/data/trans_bre/P20B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-18.60860296344688</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-4.871701823084493</v>
+        <v>-4.871701823084498</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-1</v>
@@ -649,7 +649,7 @@
         <v>-0.5265744744563959</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2655567176352511</v>
+        <v>-0.2655567176352514</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-55.77040247344888</v>
+        <v>-55.30648237156527</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-47.46264652072497</v>
+        <v>-48.05998036899543</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-48.06123827177304</v>
+        <v>-49.97184703433843</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-38.66419222966366</v>
+        <v>-37.48295250095177</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.7365339433329066</v>
+        <v>-0.7393861110062347</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.8632831723234373</v>
+        <v>-0.8543352771127017</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.8948781892642926</v>
+        <v>-0.8965842561159378</v>
       </c>
     </row>
     <row r="6">
@@ -690,23 +690,23 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-8.234987435452332</v>
+        <v>-8.297015960918998</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.622650087127514</v>
+        <v>2.44014800141175</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.309808205541879</v>
+        <v>4.73566123584037</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.38774137936819</v>
+        <v>14.01285821435029</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>0.1786096001654541</v>
+        <v>0.05467203571634207</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8470735866743495</v>
+        <v>0.4677318432656332</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -731,7 +731,7 @@
         <v>-7.219758611853474</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-13.96771475822332</v>
+        <v>-13.96771475822333</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.03478254426246111</v>
@@ -743,7 +743,7 @@
         <v>-0.2280541037752921</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3420573356279838</v>
+        <v>-0.342057335627984</v>
       </c>
     </row>
     <row r="8">
@@ -754,28 +754,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-22.3153361608911</v>
+        <v>-22.3513253140722</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-23.11155758822954</v>
+        <v>-21.35268342776141</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-31.20476164545079</v>
+        <v>-33.01487800251312</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-37.89972678137992</v>
+        <v>-37.8332269877767</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.676612472347589</v>
+        <v>-0.6658554726699795</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.597519502249252</v>
+        <v>-0.5823481803285199</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7287459486507177</v>
+        <v>-0.7019714857429643</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6908990662352799</v>
+        <v>-0.7284323767879488</v>
       </c>
     </row>
     <row r="9">
@@ -786,28 +786,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.25231144337814</v>
+        <v>17.06702977901338</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.97749367538357</v>
+        <v>16.39032242857139</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.68618430414924</v>
+        <v>17.18212391599338</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.737603352522678</v>
+        <v>10.03632362713629</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.907882871101176</v>
+        <v>2.261138423684554</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.017467383816714</v>
+        <v>1.158820837491845</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.171286726704875</v>
+        <v>1.37623181300454</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3646090372869271</v>
+        <v>0.3542108732412876</v>
       </c>
     </row>
     <row r="10">
@@ -831,7 +831,7 @@
         <v>-7.090437185805901</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-19.34163280532107</v>
+        <v>-19.34163280532108</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.0606410839075194</v>
@@ -843,7 +843,7 @@
         <v>-0.2462133105191251</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.4804560753629114</v>
+        <v>-0.4804560753629115</v>
       </c>
     </row>
     <row r="11">
@@ -854,26 +854,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-43.77630371853193</v>
+        <v>-45.44677676837028</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.91581492221587</v>
+        <v>-15.21845749402972</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-39.58903368604663</v>
+        <v>-42.89060402161375</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-39.58605588429501</v>
+        <v>-37.18672968338873</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.4930577806237716</v>
+        <v>-0.4798811058266095</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7572576030420058</v>
+        <v>-0.8136894828978619</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7473056870158661</v>
+        <v>-0.7340806853668835</v>
       </c>
     </row>
     <row r="12">
@@ -884,26 +884,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.55418763652191</v>
+        <v>19.78614723143006</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>28.83101806677529</v>
+        <v>27.97860874399356</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22.36629681913287</v>
+        <v>20.5312189371599</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.665480701395729</v>
+        <v>1.76216674065113</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>3.563624558173748</v>
+        <v>3.384556539989553</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.464654095011705</v>
+        <v>2.649258135550223</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.07059439432748035</v>
+        <v>0.09797328529688504</v>
       </c>
     </row>
     <row r="13">
@@ -927,7 +927,7 @@
         <v>5.106624560979406</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-8.889789284955778</v>
+        <v>-8.889789284955768</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.662019325713066</v>
@@ -939,7 +939,7 @@
         <v>0.1716478096246613</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2286001003923325</v>
+        <v>-0.2286001003923323</v>
       </c>
     </row>
     <row r="14">
@@ -950,26 +950,26 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-19.13616057842388</v>
+        <v>-13.94638313404938</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-26.29589640369237</v>
+        <v>-28.67284228066011</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-23.11104435931755</v>
+        <v>-20.95048722462336</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-34.13218266931615</v>
+        <v>-38.29739457737536</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.7253599454862463</v>
+        <v>-0.7399014835094639</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5236183975172255</v>
+        <v>-0.5264160208369604</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6496840329239228</v>
+        <v>-0.6618982368402587</v>
       </c>
     </row>
     <row r="15">
@@ -980,26 +980,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>49.42535682278116</v>
+        <v>48.59457599080838</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>19.57965936799226</v>
+        <v>16.75335676527427</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>29.36040961002079</v>
+        <v>28.13262867681425</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>23.27159264554848</v>
+        <v>20.00594331153712</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>2.269609470411668</v>
+        <v>1.756813760209431</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.807289883384389</v>
+        <v>1.711515011738953</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.04034129346591</v>
+        <v>1.031227448452759</v>
       </c>
     </row>
     <row r="16">
@@ -1046,26 +1046,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-45.06160944753747</v>
+        <v>-44.07794850697873</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-55.01965981139604</v>
+        <v>-58.25781847261302</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-62.90716642502105</v>
+        <v>-63.27126742751844</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-75.06044844401822</v>
+        <v>-74.18808611201544</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>-0.8146277825760915</v>
+        <v>-0.8405862470940006</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.8276385853818581</v>
+        <v>-0.8504928819477827</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.9483217112723451</v>
+        <v>-0.9527999491965958</v>
       </c>
     </row>
     <row r="18">
@@ -1076,26 +1076,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.610659435270902</v>
+        <v>3.948814271571767</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.17191213128953</v>
+        <v>9.504667642749556</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24.52078245546329</v>
+        <v>24.28982683567918</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-2.56110821642664</v>
+        <v>1.174225919881827</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>0.5790885499009789</v>
+        <v>0.3444767271067046</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9799603047780183</v>
+        <v>0.894943313928164</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.170027699571027</v>
+        <v>0.8037472643403283</v>
       </c>
     </row>
     <row r="19">
@@ -1119,7 +1119,7 @@
         <v>-4.860764238915244</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-10.29902847775905</v>
+        <v>-10.29902847775906</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.4360203799835328</v>
@@ -1142,26 +1142,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-46.84945610449646</v>
+        <v>-51.08659484948309</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-49.70225226590251</v>
+        <v>-50.00100859060667</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-36.23499249135092</v>
+        <v>-38.8734268783673</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-27.43311426388193</v>
+        <v>-27.06439371129112</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8263313098737097</v>
-      </c>
-      <c r="H20" s="6" t="inlineStr"/>
+        <v>-0.8542038121353771</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.9276542731493183</v>
+      </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7102153092863868</v>
+        <v>-0.7335644081987537</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8150117947601896</v>
+        <v>-0.8174404925742845</v>
       </c>
     </row>
     <row r="21">
@@ -1172,26 +1174,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.0207626270997</v>
+        <v>12.75702144512062</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.693877171510978</v>
+        <v>9.482335449531757</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22.86571941922152</v>
+        <v>22.13413188820821</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8.343463035262484</v>
+        <v>7.490909419748529</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.876526287813087</v>
-      </c>
-      <c r="H21" s="6" t="inlineStr"/>
+        <v>1.301998784672103</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1.075050363623971</v>
+      </c>
       <c r="I21" s="6" t="n">
-        <v>1.517768717671091</v>
+        <v>1.243345910275727</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6052687784434529</v>
+        <v>0.5904213406352543</v>
       </c>
     </row>
     <row r="22">
@@ -1215,7 +1219,7 @@
         <v>-9.024211726200909</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6.685681967422946</v>
+        <v>6.685681967422958</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.1797308892670142</v>
@@ -1227,7 +1231,7 @@
         <v>-0.2659991779748202</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2715760824060422</v>
+        <v>0.2715760824060427</v>
       </c>
     </row>
     <row r="23">
@@ -1238,28 +1242,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-27.12535783735342</v>
+        <v>-27.5603374080777</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-28.51604961859812</v>
+        <v>-29.2558233801118</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-36.54850720487705</v>
+        <v>-35.58739329667484</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-9.289563488581516</v>
+        <v>-11.71535455791291</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5371958129778938</v>
+        <v>-0.559673306545974</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6437651539493247</v>
+        <v>-0.6256105384568234</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.6966589970859829</v>
+        <v>-0.7139067250080481</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2702576042871979</v>
+        <v>-0.3235027784977558</v>
       </c>
     </row>
     <row r="24">
@@ -1270,28 +1274,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.25894513601867</v>
+        <v>15.29365749127403</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.89162042745465</v>
+        <v>14.05256316493188</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.78297775354488</v>
+        <v>13.60249348242501</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21.74381192327766</v>
+        <v>22.97365047729455</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6070445096398617</v>
+        <v>0.6672928789715039</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9280069934049265</v>
+        <v>0.8561396332366055</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9409494300142939</v>
+        <v>0.837796061069216</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.494345438283303</v>
+        <v>1.656494317923365</v>
       </c>
     </row>
     <row r="25">
@@ -1327,7 +1331,7 @@
         <v>-0.4274451167561943</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.5479531448919688</v>
+        <v>-0.5479531448919689</v>
       </c>
     </row>
     <row r="26">
@@ -1338,28 +1342,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-26.06176079318161</v>
+        <v>-28.8083094105526</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-8.667121649341098</v>
+        <v>-10.33949260278274</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-33.80326122157861</v>
+        <v>-35.51695394406212</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-38.55946717595312</v>
+        <v>-39.90269799155152</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6816198736488546</v>
+        <v>-0.7368835385211426</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3529070279219119</v>
+        <v>-0.3952960169447013</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.7785916091238532</v>
+        <v>-0.7731465310078801</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.8281326249763005</v>
+        <v>-0.8226741059130354</v>
       </c>
     </row>
     <row r="27">
@@ -1370,28 +1374,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.77286406960714</v>
+        <v>12.55389266346763</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>26.22902340000659</v>
+        <v>22.91767494049103</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.717067901942948</v>
+        <v>4.777293722887674</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-0.3523998922668917</v>
+        <v>1.493253625557433</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8928711393911551</v>
+        <v>1.095350974451766</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.151548486267468</v>
+        <v>2.848071553934329</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.210119376081951</v>
+        <v>0.247857994133744</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1273898158119413</v>
+        <v>0.1647287857283397</v>
       </c>
     </row>
     <row r="28">
@@ -1415,7 +1419,7 @@
         <v>-9.341899917322493</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-9.903336207417951</v>
+        <v>-9.903336207417949</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.2305039587340064</v>
@@ -1427,7 +1431,7 @@
         <v>-0.2772256687575638</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.2979309431677498</v>
+        <v>-0.2979309431677497</v>
       </c>
     </row>
     <row r="29">
@@ -1438,28 +1442,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-14.10563370060653</v>
+        <v>-14.98989302698247</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-13.16720531295722</v>
+        <v>-13.79299014285175</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-18.46187650657059</v>
+        <v>-18.9195461323189</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-18.1637272824058</v>
+        <v>-18.16578293780952</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.45185792190783</v>
+        <v>-0.4764757488269451</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.3656304029278389</v>
+        <v>-0.3923937067235273</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.466230473630996</v>
+        <v>-0.4774547229531264</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.4789319161994582</v>
+        <v>-0.4745813054271327</v>
       </c>
     </row>
     <row r="30">
@@ -1470,28 +1474,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.870078310529214</v>
+        <v>2.429504340701693</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.880532189973595</v>
+        <v>2.870509142432666</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1692074933276928</v>
+        <v>-0.04823182913264846</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-1.523616532171527</v>
+        <v>-1.647884488402699</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1295097181006492</v>
+        <v>0.1282796839329437</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1214771994447532</v>
+        <v>0.1220810242970052</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.004880802274638946</v>
+        <v>0.003192302351711744</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.05338467538386377</v>
+        <v>-0.05995620141591611</v>
       </c>
     </row>
     <row r="31">
